--- a/biology/Médecine/Augustin_Roux/Augustin_Roux.xlsx
+++ b/biology/Médecine/Augustin_Roux/Augustin_Roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustin Roux, né à Bordeaux le 26 janvier 1726 et mort à Paris le 28 juin 1776, est un médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roux fit ses études médicales dans sa ville natale, y fut reçu docteur en 1750 et vint ensuite à Paris où, grâce à la recommandation de Montesquieu, il put se procurer des ressources que sa famille lui refusait pour le punir de n’avoir pas voulu embrasser la carrière ecclésiastique.
 Ayant appris l’anglais, il traduisit plusieurs ouvrages écrits dans cette langue, fit en même temps un cours de médecine, travailla à la rédaction des Annales typographiques, se fit agréger comme docteur à la Faculté de médecine de Paris et succéda, en 1762, à Vandermonde en qualité de rédacteur en chef du Journal de médecine.
@@ -551,7 +565,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Larousse, Grand Dictionnaire universel du XIXe siècle, vol. 13, Paris, Administration du grand Dictionnaire universel, p. 1477.
 Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Espagne Belgique Pays-Bas Israël Catalogne Portugal WorldCat 
